--- a/data/test_data_2.xlsx
+++ b/data/test_data_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdal\Desktop\HBV_python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F36F3E2-2674-4686-9CE3-403C85D83352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF2D749-7A9F-402E-906E-3439601F7032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" xr2:uid="{55E648DE-9D6D-4BA4-AB5F-4CEE8D1B5497}"/>
   </bookViews>
